--- a/negative_yearly_earnings_per_share_2012_df.xlsx
+++ b/negative_yearly_earnings_per_share_2012_df.xlsx
@@ -1,56 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BCD7260EE031921FD2FE31D2F8F2D3C2F4D0B0F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54C5462-9A29-4F08-B1ED-EEEB776EB1AA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
+    <t>Ticker Symbol</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>AEE</t>
+  </si>
+  <si>
+    <t>BBY</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>CHK</t>
+  </si>
+  <si>
+    <t>EIX</t>
+  </si>
+  <si>
+    <t>ETFC</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>LVLT</t>
+  </si>
+  <si>
+    <t>NFX</t>
+  </si>
+  <si>
+    <t>PNR</t>
+  </si>
+  <si>
+    <t>PRU</t>
+  </si>
+  <si>
+    <t>SWN</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>VRTX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +146,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -191,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,281 +443,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3">
+        <v>-4.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4">
+        <v>-3.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5">
+        <v>-2.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B6">
+        <v>-1.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B7">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B8">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="E2">
-        <v>-5.6</v>
-      </c>
-      <c r="F2">
-        <v>-11.25</v>
-      </c>
-      <c r="G2">
-        <v>4.02</v>
-      </c>
-      <c r="H2">
-        <v>11.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="E3">
-        <v>-4.01</v>
-      </c>
-      <c r="F3">
-        <v>1.19</v>
-      </c>
-      <c r="G3">
-        <v>2.42</v>
-      </c>
-      <c r="H3">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="E4">
-        <v>-3.36</v>
-      </c>
-      <c r="G4">
-        <v>1.56</v>
-      </c>
-      <c r="H4">
-        <v>3.53</v>
-      </c>
-      <c r="I4">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="E5">
-        <v>-2.89</v>
-      </c>
-      <c r="F5">
-        <v>-0.09</v>
-      </c>
-      <c r="G5">
-        <v>-0.09</v>
-      </c>
-      <c r="H5">
+      <c r="B9">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="E6">
-        <v>-1.46</v>
-      </c>
-      <c r="F6">
-        <v>0.73</v>
-      </c>
-      <c r="G6">
-        <v>1.93</v>
-      </c>
-      <c r="H6">
-        <v>-22.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="E7">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="F7">
-        <v>2.81</v>
-      </c>
-      <c r="G7">
-        <v>4.95</v>
-      </c>
-      <c r="H7">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="E8">
-        <v>-0.39</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8">
-        <v>1.02</v>
-      </c>
-      <c r="H8">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="E9">
-        <v>-1.11</v>
-      </c>
-      <c r="F9">
-        <v>3.77</v>
-      </c>
-      <c r="G9">
-        <v>3.97</v>
-      </c>
-      <c r="H9">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="E10">
-        <v>-0.18</v>
-      </c>
-      <c r="F10">
-        <v>0.37</v>
-      </c>
-      <c r="G10">
-        <v>1.81</v>
-      </c>
-      <c r="H10">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="E11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>-1.96</v>
       </c>
-      <c r="F11">
-        <v>-0.49</v>
-      </c>
-      <c r="G11">
-        <v>1.23</v>
-      </c>
-      <c r="H11">
-        <v>9.710000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="E12">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G12">
-        <v>6.59</v>
-      </c>
-      <c r="H12">
-        <v>-21.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="E13">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>-0.84</v>
       </c>
-      <c r="F13">
-        <v>2.67</v>
-      </c>
-      <c r="G13">
-        <v>1.13</v>
-      </c>
-      <c r="H13">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="E14">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>-0.48</v>
       </c>
-      <c r="F14">
-        <v>-1.55</v>
-      </c>
-      <c r="G14">
-        <v>-2.69</v>
-      </c>
-      <c r="H14">
-        <v>12.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="E15">
-        <v>-2.03</v>
-      </c>
-      <c r="F15">
-        <v>2.01</v>
-      </c>
-      <c r="G15">
-        <v>2.63</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="E16">
-        <v>-2.18</v>
-      </c>
-      <c r="F16">
-        <v>1.64</v>
-      </c>
-      <c r="G16">
-        <v>3.05</v>
-      </c>
-      <c r="H16">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>-2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>-2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>-0.41</v>
       </c>
-      <c r="F17">
-        <v>0.19</v>
-      </c>
-      <c r="G17">
-        <v>1.56</v>
-      </c>
-      <c r="H17">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>-0.5</v>
-      </c>
-      <c r="F18">
-        <v>-1.98</v>
-      </c>
-      <c r="G18">
-        <v>-3.14</v>
-      </c>
-      <c r="H18">
-        <v>-2.31</v>
       </c>
     </row>
   </sheetData>

--- a/negative_yearly_earnings_per_share_2012_df.xlsx
+++ b/negative_yearly_earnings_per_share_2012_df.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BCD7260EE031921FD2FE31D2F8F2D3C2F4D0B0F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54C5462-9A29-4F08-B1ED-EEEB776EB1AA}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -82,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,21 +140,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -232,7 +218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -267,10 +252,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,20 +427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,7 +442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -472,7 +450,7 @@
         <v>-5.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,7 +458,7 @@
         <v>-4.01</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -488,7 +466,7 @@
         <v>-3.36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -496,7 +474,7 @@
         <v>-2.89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,15 +482,15 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -520,15 +498,15 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -536,7 +514,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -544,15 +522,15 @@
         <v>-1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-8.800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -560,7 +538,7 @@
         <v>-0.84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -568,23 +546,23 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -592,7 +570,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>

--- a/negative_yearly_earnings_per_share_2012_df.xlsx
+++ b/negative_yearly_earnings_per_share_2012_df.xlsx
@@ -14,63 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>2012</t>
-  </si>
-  <si>
-    <t>Ticker Symbol</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>AEE</t>
-  </si>
-  <si>
-    <t>BBY</t>
-  </si>
-  <si>
-    <t>BSX</t>
-  </si>
-  <si>
-    <t>CHK</t>
-  </si>
-  <si>
-    <t>EIX</t>
-  </si>
-  <si>
-    <t>ETFC</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>HIG</t>
-  </si>
-  <si>
-    <t>LVLT</t>
-  </si>
-  <si>
-    <t>NFX</t>
-  </si>
-  <si>
-    <t>PNR</t>
-  </si>
-  <si>
-    <t>PRU</t>
-  </si>
-  <si>
-    <t>SWN</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>VMC</t>
-  </si>
-  <si>
-    <t>VRTX</t>
   </si>
 </sst>
 </file>
@@ -94,12 +40,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,11 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,153 +382,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2">
         <v>-5.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2">
         <v>-4.01</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
         <v>-3.36</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
         <v>-2.89</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
         <v>-1.46</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2">
         <v>-0.5600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
         <v>-0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
         <v>-1.11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
         <v>-1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:1">
+      <c r="A12" s="3">
         <v>-8.800000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
         <v>-0.84</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
         <v>-0.48</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
         <v>-2.03</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
         <v>-2.18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
         <v>-0.41</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
         <v>-0.5</v>
       </c>
     </row>

--- a/negative_yearly_earnings_per_share_2012_df.xlsx
+++ b/negative_yearly_earnings_per_share_2012_df.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>

--- a/negative_yearly_earnings_per_share_2012_df.xlsx
+++ b/negative_yearly_earnings_per_share_2012_df.xlsx
@@ -14,9 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>2012</t>
+  </si>
+  <si>
+    <t>Ticker Symbol</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>AEE</t>
+  </si>
+  <si>
+    <t>BBY</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>CHK</t>
+  </si>
+  <si>
+    <t>EIX</t>
+  </si>
+  <si>
+    <t>ETFC</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>LVLT</t>
+  </si>
+  <si>
+    <t>NFX</t>
+  </si>
+  <si>
+    <t>PNR</t>
+  </si>
+  <si>
+    <t>PRU</t>
+  </si>
+  <si>
+    <t>SWN</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>VRTX</t>
   </si>
 </sst>
 </file>
@@ -382,99 +436,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
         <v>-5.6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>-4.01</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
         <v>-3.36</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>-2.89</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
         <v>-1.46</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>-0.5600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
         <v>-0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>-1.11</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>-1.96</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
         <v>-8.800000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
         <v>-0.84</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
         <v>-0.48</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
         <v>-2.03</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
         <v>-2.18</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
         <v>-0.41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
         <v>-0.5</v>
       </c>
     </row>
